--- a/E2E/1 - E2E Project Solution Template v1.0.xlsx
+++ b/E2E/1 - E2E Project Solution Template v1.0.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="8" r:id="rId1"/>
     <sheet name="Solution Design" sheetId="1" r:id="rId2"/>
-    <sheet name="Technology Landscape" sheetId="2" r:id="rId3"/>
-    <sheet name="Development &amp; Delivery" sheetId="3" r:id="rId4"/>
-    <sheet name="Deployment Architecture" sheetId="9" r:id="rId5"/>
-    <sheet name="Testing" sheetId="4" r:id="rId6"/>
-    <sheet name="Release" sheetId="5" r:id="rId7"/>
-    <sheet name="Support" sheetId="6" r:id="rId8"/>
-    <sheet name="Configuration" sheetId="7" r:id="rId9"/>
-    <sheet name="Development &amp; Delivery (2)" sheetId="10" r:id="rId10"/>
+    <sheet name="Integration Solution" sheetId="11" r:id="rId3"/>
+    <sheet name="Technology Landscape" sheetId="2" r:id="rId4"/>
+    <sheet name="Development &amp; Delivery" sheetId="3" r:id="rId5"/>
+    <sheet name="Deployment Architecture" sheetId="9" r:id="rId6"/>
+    <sheet name="Testing" sheetId="4" r:id="rId7"/>
+    <sheet name="Release" sheetId="5" r:id="rId8"/>
+    <sheet name="Support" sheetId="6" r:id="rId9"/>
+    <sheet name="Configuration" sheetId="7" r:id="rId10"/>
+    <sheet name="Development &amp; Delivery (2)" sheetId="10" state="hidden" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>External</t>
   </si>
@@ -161,13 +162,148 @@
   </si>
   <si>
     <t>https://www.digitalocean.com/community/tutorials/5-ways-to-improve-your-production-web-application-server-setup</t>
+  </si>
+  <si>
+    <t>Integration Platform</t>
+  </si>
+  <si>
+    <t>Topology</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Protocols</t>
+  </si>
+  <si>
+    <t>Processing (Optional)</t>
+  </si>
+  <si>
+    <t>Communication / Integration Patterns</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/cd/E82085_01/160/BDI%20Implementation%20Guide/Output/Chapter%208%20-%20data-integration-topologies.htm</t>
+  </si>
+  <si>
+    <t>Real Time/ Near Real Time/ Batch</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Hub &amp; Spoke</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>EAI</t>
+  </si>
+  <si>
+    <t>ESB</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>Micro Service</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>Point-to-Point Channel</t>
+  </si>
+  <si>
+    <t>Publish-Subcr. Channel</t>
+  </si>
+  <si>
+    <t>Durable Subscriber</t>
+  </si>
+  <si>
+    <t>Datatype Channel</t>
+  </si>
+  <si>
+    <t>Invalid Message Channel</t>
+  </si>
+  <si>
+    <t>Dead Letter Channel</t>
+  </si>
+  <si>
+    <t>Guaranteed Messaging</t>
+  </si>
+  <si>
+    <t>Channel Adapter</t>
+  </si>
+  <si>
+    <t>Request-Reply</t>
+  </si>
+  <si>
+    <t>Return Address (Multiple Consumers)</t>
+  </si>
+  <si>
+    <t>Correlation Identifier (Multiple Providers)</t>
+  </si>
+  <si>
+    <t>Pipes-And-Filters</t>
+  </si>
+  <si>
+    <t>Integration Patterns - ASYNC</t>
+  </si>
+  <si>
+    <t>Splitter (Composite Message)</t>
+  </si>
+  <si>
+    <t>Content Based Router (Specialized Provider)</t>
+  </si>
+  <si>
+    <t>Splitter &amp; Router</t>
+  </si>
+  <si>
+    <t>Aggregator (Single Response)</t>
+  </si>
+  <si>
+    <t>Scatter-Gather (Pub-Sub + Aggregator)</t>
+  </si>
+  <si>
+    <t>Control Bus</t>
+  </si>
+  <si>
+    <t>Wire Tap</t>
+  </si>
+  <si>
+    <t>Smart Proxy (like NAT)</t>
+  </si>
+  <si>
+    <t>Test Messaage</t>
+  </si>
+  <si>
+    <t>SOAP/HTTP(S)</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>CoAP</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+  </si>
+  <si>
+    <t>AMQP</t>
+  </si>
+  <si>
+    <t>Websocket</t>
+  </si>
+  <si>
+    <t>Node</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +397,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -348,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -514,11 +659,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -597,6 +813,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,9 +838,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,20 +885,38 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="4"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,12 +927,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,6 +935,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1995,6 +2257,121 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600074" y="914400"/>
+          <a:ext cx="1190625" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>System A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914899" y="923925"/>
+          <a:ext cx="1190625" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>System B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3745,7 +4122,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3805,7 +4182,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5658,7 +6035,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6076,6 +6453,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6085,20 +6476,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="J2" s="73" t="s">
+      <c r="G2" s="82"/>
+      <c r="J2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="73"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I6" s="37" t="s">
@@ -6112,8 +6503,8 @@
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="35"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
@@ -6125,8 +6516,8 @@
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
@@ -6361,8 +6752,8 @@
   </sheetPr>
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,30 +6766,30 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="11"/>
       <c r="H3" s="30"/>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="48"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
@@ -6419,42 +6810,42 @@
       <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="18"/>
       <c r="O5" s="14"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
       <c r="P6" s="16"/>
@@ -6469,10 +6860,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="13"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="18"/>
       <c r="O7" s="14"/>
       <c r="P7" s="16"/>
@@ -6522,14 +6913,14 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
       <c r="O10" s="14"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="21"/>
@@ -6541,14 +6932,14 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="55" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="24"/>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="67"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -6563,7 +6954,7 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -6581,7 +6972,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -6599,15 +6990,15 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="66" t="s">
+      <c r="M14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="66"/>
+      <c r="N14" s="48"/>
       <c r="O14" s="14"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="26"/>
@@ -6619,13 +7010,13 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="51"/>
+      <c r="H15" s="56"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
       <c r="O15" s="14"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="26"/>
@@ -6637,49 +7028,49 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="56"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="65"/>
+      <c r="N16" s="47"/>
       <c r="O16" s="14"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="26"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="51"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
       <c r="O17" s="14"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -6697,7 +7088,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="51"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
@@ -6715,7 +7106,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -6733,7 +7124,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="51"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -6751,7 +7142,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -6769,7 +7160,7 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -6787,7 +7178,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -6805,7 +7196,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -6817,61 +7208,55 @@
       <c r="Q25" s="26"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="14"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="52" t="s">
+      <c r="P26" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="53"/>
+      <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="44"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="28"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="44" t="s">
+      <c r="P27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q27" s="45"/>
+      <c r="Q27" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="J11:K11"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="P3:Q3"/>
@@ -6888,6 +7273,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6897,10 +7288,459 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D2" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D3" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D5" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="87"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="87"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="91"/>
+      <c r="F14" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="91"/>
+      <c r="F15" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6915,11 +7755,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -6947,20 +7787,20 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70" t="s">
+      <c r="I7" s="80"/>
+      <c r="J7" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
       <c r="O7" s="41">
         <v>2</v>
       </c>
@@ -7175,10 +8015,10 @@
       <c r="O20" s="41"/>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="78"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
@@ -7188,10 +8028,10 @@
       <c r="O21" s="41"/>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
@@ -7210,10 +8050,10 @@
       <c r="L23" s="31"/>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="72"/>
+      <c r="F24" s="78"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
@@ -7222,10 +8062,10 @@
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="72"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
@@ -7234,10 +8074,10 @@
       <c r="L25" s="31"/>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
@@ -7246,10 +8086,10 @@
       <c r="L26" s="31"/>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
@@ -7258,10 +8098,10 @@
       <c r="L27" s="31"/>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
@@ -7270,10 +8110,10 @@
       <c r="L28" s="31"/>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
@@ -7283,29 +8123,29 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7321,7 +8161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7341,7 +8181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7359,7 +8199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7371,18 +8211,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/E2E/1 - E2E Project Solution Template v1.0.xlsx
+++ b/E2E/1 - E2E Project Solution Template v1.0.xlsx
@@ -4,27 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="8" r:id="rId1"/>
     <sheet name="Solution Design" sheetId="1" r:id="rId2"/>
     <sheet name="Integration Solution" sheetId="11" r:id="rId3"/>
-    <sheet name="Technology Landscape" sheetId="2" r:id="rId4"/>
-    <sheet name="Development &amp; Delivery" sheetId="3" r:id="rId5"/>
-    <sheet name="Deployment Architecture" sheetId="9" r:id="rId6"/>
-    <sheet name="Testing" sheetId="4" r:id="rId7"/>
-    <sheet name="Release" sheetId="5" r:id="rId8"/>
-    <sheet name="Support" sheetId="6" r:id="rId9"/>
-    <sheet name="Configuration" sheetId="7" r:id="rId10"/>
-    <sheet name="Development &amp; Delivery (2)" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="Service Sloution" sheetId="12" r:id="rId4"/>
+    <sheet name="UI Solution" sheetId="13" r:id="rId5"/>
+    <sheet name="Intelligence" sheetId="14" r:id="rId6"/>
+    <sheet name="Technology Landscape" sheetId="2" r:id="rId7"/>
+    <sheet name="Development &amp; Delivery" sheetId="3" r:id="rId8"/>
+    <sheet name="Deployment Architecture" sheetId="9" r:id="rId9"/>
+    <sheet name="Testing" sheetId="4" r:id="rId10"/>
+    <sheet name="Release" sheetId="5" r:id="rId11"/>
+    <sheet name="Support" sheetId="6" r:id="rId12"/>
+    <sheet name="Configuration" sheetId="7" r:id="rId13"/>
+    <sheet name="Development &amp; Delivery (2)" sheetId="10" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>External</t>
   </si>
@@ -185,9 +188,6 @@
     <t>https://docs.oracle.com/cd/E82085_01/160/BDI%20Implementation%20Guide/Output/Chapter%208%20-%20data-integration-topologies.htm</t>
   </si>
   <si>
-    <t>Real Time/ Near Real Time/ Batch</t>
-  </si>
-  <si>
     <t>Processing</t>
   </si>
   <si>
@@ -297,13 +297,116 @@
   </si>
   <si>
     <t>Node</t>
+  </si>
+  <si>
+    <t>Compliance &amp; Regulation</t>
+  </si>
+  <si>
+    <t>CI/CD DevOPS and Delivery Layer</t>
+  </si>
+  <si>
+    <t>Integration Layer</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>API Management</t>
+  </si>
+  <si>
+    <t>Lamda Service</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Web UI</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>PWA</t>
+  </si>
+  <si>
+    <t>Content Management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Real Time/ Near Real Time/ Batch</t>
+    </r>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Business, Process &amp; Data Integration</t>
+    </r>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>https://www.globalscape.com/blog/5-types-data-integration</t>
+  </si>
+  <si>
+    <t>OSB (ESB Platform)</t>
+  </si>
+  <si>
+    <t>MuleSoft (ESB Platform) - Open Source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +509,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,12 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,8 +609,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -585,52 +714,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -730,11 +813,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -754,13 +874,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -768,28 +888,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -813,6 +929,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,17 +1011,14 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,89 +1026,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,25 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,268 +1390,292 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>423334</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190495</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>423334</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>84662</xdr:rowOff>
+      <xdr:rowOff>84661</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="Group 20"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5376334" y="3249078"/>
-          <a:ext cx="1841500" cy="1428751"/>
-          <a:chOff x="4931833" y="2614083"/>
-          <a:chExt cx="1841500" cy="1418167"/>
+          <a:off x="5376334" y="4063999"/>
+          <a:ext cx="1841500" cy="613829"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4931833" y="2614083"/>
-            <a:ext cx="1841500" cy="1418167"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
-              <a:t>Application</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
-              <a:t>Framework</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5111750" y="3661835"/>
-            <a:ext cx="275167" cy="243416"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1050">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>C</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5560484" y="3676652"/>
-            <a:ext cx="275167" cy="243416"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>C</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5924551" y="3670302"/>
-            <a:ext cx="753532" cy="234948"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Component</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Application Framework</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>455082</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21154</xdr:rowOff>
+      <xdr:colOff>603251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>264585</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5556251" y="4357565"/>
+          <a:ext cx="275167" cy="245233"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438152</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99485</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6004985" y="4372492"/>
+          <a:ext cx="275167" cy="245233"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>188385</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>402165</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148154</xdr:rowOff>
+      <xdr:colOff>328084</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6369052" y="4366095"/>
+          <a:ext cx="753532" cy="236701"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Component</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391584</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179897</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1517,7 +1684,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5408082" y="3270237"/>
+          <a:off x="5397501" y="3693564"/>
           <a:ext cx="1788583" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -1563,8 +1730,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1574,7 +1741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3835403" y="3481917"/>
-          <a:ext cx="704848" cy="508000"/>
+          <a:ext cx="704848" cy="687916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,7 +1776,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="800" b="0"/>
-            <a:t>SOAP/REST</a:t>
+            <a:t>SOAP/REST/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="0"/>
+            <a:t>Micro</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="0"/>
+            <a:t>Services</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1981,7 +2162,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4720165" y="2095499"/>
+          <a:off x="4720165" y="2106082"/>
           <a:ext cx="624417" cy="624418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2194,8 +2375,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114308</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99474</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -2210,8 +2391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3839641" y="4121141"/>
-          <a:ext cx="704848" cy="556691"/>
+          <a:off x="3839641" y="4233333"/>
+          <a:ext cx="704848" cy="444499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,6 +2434,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>448732</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148165</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5401732" y="3196167"/>
+          <a:ext cx="927100" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Intelligence</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2262,13 +2498,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2317,13 +2553,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6035,7 +6271,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6456,7 +6692,45 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6465,34 +6739,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="J2" s="82" t="s">
+      <c r="G2" s="98"/>
+      <c r="J2" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="82"/>
+      <c r="K2" s="98"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6500,27 +6788,27 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -6531,9 +6819,9 @@
       <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -6544,9 +6832,9 @@
       <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -6557,9 +6845,9 @@
       <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -6570,9 +6858,9 @@
       <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E14" s="10"/>
@@ -6580,9 +6868,9 @@
       <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E15" s="10"/>
@@ -6590,9 +6878,9 @@
       <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E16" s="10"/>
@@ -6600,9 +6888,9 @@
       <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="10"/>
@@ -6610,9 +6898,9 @@
       <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="10"/>
@@ -6620,9 +6908,9 @@
       <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="10"/>
@@ -6630,9 +6918,9 @@
       <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="10"/>
@@ -6640,9 +6928,9 @@
       <c r="G20" s="10"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="10"/>
@@ -6650,9 +6938,9 @@
       <c r="G21" s="10"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
@@ -6660,9 +6948,9 @@
       <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="10"/>
@@ -6670,9 +6958,9 @@
       <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="10"/>
@@ -6680,9 +6968,9 @@
       <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="10"/>
@@ -6690,9 +6978,9 @@
       <c r="G25" s="10"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="10"/>
@@ -6700,9 +6988,9 @@
       <c r="G26" s="10"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="10"/>
@@ -6710,9 +6998,9 @@
       <c r="G27" s="10"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="10"/>
@@ -6720,9 +7008,9 @@
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="10"/>
@@ -6730,9 +7018,9 @@
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6750,10 +7038,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:Q27"/>
+  <dimension ref="B2:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6766,30 +7054,30 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="53"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
@@ -6810,42 +7098,42 @@
       <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="18"/>
       <c r="O5" s="14"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="18"/>
       <c r="O6" s="14"/>
       <c r="P6" s="16"/>
@@ -6860,10 +7148,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="13"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="18"/>
       <c r="O7" s="14"/>
       <c r="P7" s="16"/>
@@ -6913,372 +7201,417 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="21"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="49" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="48" t="s">
+      <c r="H14" s="79"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="48"/>
+      <c r="N14" s="72"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="67"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="47" t="s">
+      <c r="H16" s="79"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="26"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="14"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="26"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="26"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="60"/>
-      <c r="C26" s="57"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="25"/>
+    </row>
+    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="45"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="57" t="s">
+      <c r="F27" s="56"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="57" t="s">
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="58"/>
-    </row>
-    <row r="27" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="61"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="50" t="s">
+      <c r="Q27" s="80"/>
+    </row>
+    <row r="28" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="50" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="50" t="s">
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q27" s="51"/>
+      <c r="Q28" s="74"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="H11:H25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J5:M7"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="25">
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="M16:N17"/>
     <mergeCell ref="M14:N15"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="H11:H25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J5:M7"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7288,403 +7621,500 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U25"/>
+  <dimension ref="B2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D2" s="74" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D2" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="U2" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D3" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="V4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D3" s="71" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D5" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+      <c r="V5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D6" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D7" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="71" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="83"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="83"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D6" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="71" t="s">
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" s="83"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D8" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D9" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D10" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="87"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" s="87"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="91" t="s">
+      <c r="R14" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
+      <c r="R15" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="90" t="s">
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="90" t="s">
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F24" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F23" s="90" t="s">
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F25" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F24" s="90" t="s">
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F26" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F25" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="M21:O21"/>
+  <mergeCells count="65">
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -7692,42 +8122,14 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J22:L22"/>
     <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7737,10 +8139,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7755,31 +8272,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I6" s="37"/>
-      <c r="O6" s="41">
+      <c r="I6" s="33"/>
+      <c r="O6" s="37">
         <v>1</v>
       </c>
       <c r="P6" t="s">
@@ -7787,21 +8304,21 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80" t="s">
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="94"/>
+      <c r="J7" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="O7" s="41">
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="O7" s="37">
         <v>2</v>
       </c>
       <c r="P7" t="s">
@@ -7812,15 +8329,15 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="O8" s="41">
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="O8" s="37">
         <v>3</v>
       </c>
       <c r="P8" t="s">
@@ -7831,15 +8348,15 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="O9" s="41">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="O9" s="37">
         <v>4</v>
       </c>
       <c r="P9" t="s">
@@ -7855,10 +8372,10 @@
       <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="O10" s="41">
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="O10" s="37">
         <v>5</v>
       </c>
       <c r="P10" t="s">
@@ -7874,13 +8391,13 @@
       <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="O11" s="41">
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="O11" s="37">
         <v>6</v>
       </c>
-      <c r="P11" s="42" t="s">
+      <c r="P11" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7893,13 +8410,13 @@
       <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="O12" s="41">
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="O12" s="37">
         <v>7</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7912,13 +8429,13 @@
       <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="O13" s="41">
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="O13" s="37">
         <v>8</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="38" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7928,13 +8445,13 @@
       <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="O14" s="41">
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="O14" s="37">
         <v>9</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="38" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7944,13 +8461,13 @@
       <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="O15" s="41">
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="O15" s="37">
         <v>10</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7960,13 +8477,13 @@
       <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="O16" s="41">
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="O16" s="37">
         <v>11</v>
       </c>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7976,10 +8493,10 @@
       <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="O17" s="41"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="10"/>
@@ -7987,10 +8504,10 @@
       <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="O18" s="41"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E19" s="10"/>
@@ -7998,149 +8515,149 @@
       <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="O19" s="41"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="O20" s="41"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="O20" s="37"/>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="O21" s="41"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20"/>
   <sheetViews>
@@ -8159,56 +8676,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>